--- a/SuppXLS/Scen_PWR_UnitCommitment.xlsx
+++ b/SuppXLS/Scen_PWR_UnitCommitment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9C5E7E-95D4-4F4A-BBBC-B8178E0A1BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38626C8-7BE3-4EA5-8EC6-A78B5B97B5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2739,339 +2739,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>71698</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>182837</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B082352-2BD2-45D3-A2A9-755F041AAFAB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8362950" y="146050"/>
-          <a:ext cx="6535998" cy="2608537"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85290</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>351162</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>155035</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9411FD3A-DE85-4EDD-87AD-C08C853B77D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8382000" y="2752290"/>
-          <a:ext cx="6186812" cy="2641495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>119629</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>62245</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>90923</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0987070D-5E7E-4ABC-A60F-E56BBAF1E6A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8241279" y="5486400"/>
-          <a:ext cx="5429016" cy="3100823"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>186850</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>373751</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>176636</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2FB0F95-A57E-430B-A68D-FA45622490BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5063650" y="133350"/>
-          <a:ext cx="4454101" cy="5777336"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>67600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0896E3AD-ADE3-4A65-92E5-7ABCFBAF7050}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5213350" y="0"/>
-          <a:ext cx="7531100" cy="5598450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>532037</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>74089</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA627D9B-243F-4B4D-A5D2-A553331D2D42}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5257800" y="57150"/>
-          <a:ext cx="5427887" cy="4360339"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>448500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>49097</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>157952</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E70A10-E839-41A8-A615-F28E42AF911E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7046150" y="171450"/>
-          <a:ext cx="6306197" cy="3745702"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3397,7 +3064,7 @@
   <dimension ref="A1:Z99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15"/>
@@ -6249,9 +5916,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A2:AG49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9468,7 +9133,7 @@
   <dimension ref="A1:AJ57"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
@@ -14918,15 +14583,16 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="21"/>
-    <col min="3" max="3" width="44.25" style="21" customWidth="1"/>
-    <col min="4" max="4" width="29.125" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="21"/>
+    <col min="3" max="3" width="36.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -15355,7 +15021,6 @@
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15365,7 +15030,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15488,8 +15153,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15864,7 +15529,6 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15874,14 +15538,16 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="21"/>
     <col min="3" max="3" width="46.125" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="21"/>
+    <col min="4" max="4" width="9" style="21"/>
+    <col min="5" max="5" width="9.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -16027,7 +15693,6 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16037,7 +15702,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="A1:XFD1048576"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16177,7 +15842,6 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16393,7 +16057,6 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16403,7 +16066,7 @@
   <dimension ref="C1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
